--- a/data/trans_bre/P0901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>160,55%</t>
+          <t>54,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,31%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>36,53%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 17,55</t>
+          <t>1,29; 7,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 21,54</t>
+          <t>5,01; 12,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 13,53</t>
+          <t>6,14; 14,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 8,54</t>
+          <t>2,02; 8,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 678,36</t>
+          <t>14,18; 114,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 220,63</t>
+          <t>33,32; 117,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 90,82</t>
+          <t>41,03; 132,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 49,23</t>
+          <t>12,18; 68,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,53</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,37%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>108,65%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>109,42%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,69</t>
+          <t>3,35; 9,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,28</t>
+          <t>5,98; 13,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 17,16</t>
+          <t>4,7; 10,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,23</t>
+          <t>6,8; 16,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 94,71</t>
+          <t>29,9; 112,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 125,78</t>
+          <t>42,65; 118,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,63; 179,7</t>
+          <t>40,49; 124,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 86,49</t>
+          <t>53,88; 327,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>104,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>120,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>-2,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,67</t>
+          <t>5,19; 12,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,35</t>
+          <t>5,36; 12,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,81</t>
+          <t>6,97; 13,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,4</t>
+          <t>-8,67; 5,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 112,14</t>
+          <t>49,94; 173,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,65; 118,38</t>
+          <t>44,11; 156,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 124,04</t>
+          <t>69,66; 201,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,21; 113,9</t>
+          <t>-49,56; 36,55</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,16%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>120,68%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>46,96%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,59</t>
+          <t>5,9; 12,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,69</t>
+          <t>4,38; 11,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,75</t>
+          <t>4,63; 11,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,09</t>
+          <t>2,1; 10,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,94; 173,55</t>
+          <t>56,23; 156,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 156,57</t>
+          <t>31,13; 107,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,66; 201,48</t>
+          <t>35,72; 121,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 43,19</t>
+          <t>16,34; 82,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>46,94%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,16</t>
+          <t>5,71; 9,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,37</t>
+          <t>7,03; 10,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,3</t>
+          <t>7,12; 10,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,56</t>
+          <t>2,97; 8,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,23; 156,86</t>
+          <t>58,13; 109,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,13; 107,99</t>
+          <t>53,85; 94,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,72; 121,32</t>
+          <t>64,83; 110,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 92,43</t>
+          <t>22,81; 81,97</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>80,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,94%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>85,58%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>44,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 9,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,03; 10,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 10,77</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 8,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>58,13; 109,02</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>53,85; 94,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>64,83; 110,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>26,86; 60,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P0901-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P0901-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,78</t>
+          <t>1,3; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,94</t>
+          <t>4,95; 12,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 14,8</t>
+          <t>6,06; 14,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 8,89</t>
+          <t>1,8; 9,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 114,6</t>
+          <t>13,74; 114,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,32; 117,3</t>
+          <t>33,01; 118,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>41,03; 132,3</t>
+          <t>42,2; 133,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 68,52</t>
+          <t>9,8; 71,7</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,67</t>
+          <t>3,51; 9,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,35</t>
+          <t>6,55; 13,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,81</t>
+          <t>4,85; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 16,17</t>
+          <t>7,08; 16,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 112,14</t>
+          <t>29,57; 107,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,65; 118,38</t>
+          <t>46,01; 121,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 124,04</t>
+          <t>43,91; 136,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,88; 327,23</t>
+          <t>55,26; 308,34</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,59</t>
+          <t>5,52; 12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,69</t>
+          <t>5,24; 12,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,75</t>
+          <t>6,68; 13,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,18</t>
+          <t>-9,03; 5,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,94; 173,55</t>
+          <t>54,69; 189,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,11; 156,57</t>
+          <t>42,03; 150,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,66; 201,48</t>
+          <t>62,19; 190,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 36,55</t>
+          <t>-49,29; 37,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,16</t>
+          <t>6,11; 11,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,37</t>
+          <t>4,3; 10,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,3</t>
+          <t>4,83; 11,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,14</t>
+          <t>2,31; 10,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,23; 156,86</t>
+          <t>58,25; 150,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,13; 107,99</t>
+          <t>30,27; 99,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 121,32</t>
+          <t>38,26; 120,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 82,05</t>
+          <t>15,46; 79,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,74; 8,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,01; 10,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,16; 10,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,92</t>
+          <t>2,64; 9,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,89; 105,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>54,3; 97,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>63,67; 109,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,81; 81,97</t>
+          <t>22,22; 86,49</t>
         </is>
       </c>
     </row>
